--- a/example_db/example.xlsx
+++ b/example_db/example.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\Python\Generador de tablas de excel\example_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2023105\Documents\Documentos\Proyectos\Generador_tablas\example_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B2F05E-569E-439A-A325-FB0D1DDE110F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE7A82-1301-4E7D-AB2F-D4F2C1110E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="VAR" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$B$1:$B$8301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="31">
   <si>
     <t>DB</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Honda</t>
   </si>
   <si>
-    <t>Cadillac</t>
-  </si>
-  <si>
     <t>Chevrolet</t>
   </si>
   <si>
@@ -116,13 +113,10 @@
     <t>Expansion_factor</t>
   </si>
   <si>
+    <t>DISAGGREGATE</t>
+  </si>
+  <si>
     <t>${multiply},Expansion_factor</t>
-  </si>
-  <si>
-    <t>DISAGGREGATE</t>
-  </si>
-  <si>
-    <t>P2 exp</t>
   </si>
 </sst>
 </file>
@@ -198,9 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,566 +495,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
+      <c r="E20" t="s">
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B8301" xr:uid="{28BE7E57-F551-4E8F-A7D0-AEC330063EC2}"/>
+  <autoFilter ref="A1:G21" xr:uid="{0A6C1E0C-0C02-4642-8FB5-A729994EABCD}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TEST1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1072,46 +1008,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70059C02-607F-4E26-B8F7-BF41B7AF98E1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,35 +1070,35 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>

--- a/example_db/example.xlsx
+++ b/example_db/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2023105\Documents\Documentos\Proyectos\Generador_tablas\example_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AE7A82-1301-4E7D-AB2F-D4F2C1110E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E931364-3BEC-47DF-8BCD-3A473071D8EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10365" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>DISAGGREGATE</t>
   </si>
   <si>
-    <t>${multiply},Expansion_factor</t>
+    <t>P2 - Test question 2,${multiply},Expansion_factor</t>
   </si>
 </sst>
 </file>
@@ -495,11 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -759,7 +758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -782,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -805,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -828,7 +827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -851,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -871,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -894,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -917,7 +916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -940,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -963,7 +962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -987,18 +986,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G21" xr:uid="{0A6C1E0C-0C02-4642-8FB5-A729994EABCD}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TEST1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G21" xr:uid="{0A6C1E0C-0C02-4642-8FB5-A729994EABCD}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1008,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70059C02-607F-4E26-B8F7-BF41B7AF98E1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,8 +1037,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
